--- a/biology/Botanique/Passiflora_coccinea/Passiflora_coccinea.xlsx
+++ b/biology/Botanique/Passiflora_coccinea/Passiflora_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Passiflora coccinea est une espèce de plantes à fleurs de la famille des Passifloraceae. C’est une plante grimpante à feuilles persistantes pouvant atteindre 6 mètres de haut ou plus. Son fruit est une drupe. Elle est originaire d'Amérique du Sud, plus précisément de Guyane ou encore de Bolivie[4].
-Elle est connue en Guyane sous les noms de Liane serpent, Pomme liane sauvage, Pomme liane grand bois [ponm-yann-gran-bwa] (Créole), Mulukuya (Wayãpi), Wahitye akamnumã (Palikur - NB : mêmes noms pour P. glandulosa Cav. et P. amoena Escobar), Maracujá-poranga, Maracujá-do-rato (Portugais)[5], Sineki maakusa (Aluku)[6]. On la connaît également sous les noms de Passiflore écarlate ou Grenadille rouge[7] en raison de ses fleurs rouges vives. Au Guyana, on l'appelle Semitoo (Créole), Marudi yure (Arawak), Sokosoko (Carib)[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passiflora coccinea est une espèce de plantes à fleurs de la famille des Passifloraceae. C’est une plante grimpante à feuilles persistantes pouvant atteindre 6 mètres de haut ou plus. Son fruit est une drupe. Elle est originaire d'Amérique du Sud, plus précisément de Guyane ou encore de Bolivie.
+Elle est connue en Guyane sous les noms de Liane serpent, Pomme liane sauvage, Pomme liane grand bois [ponm-yann-gran-bwa] (Créole), Mulukuya (Wayãpi), Wahitye akamnumã (Palikur - NB : mêmes noms pour P. glandulosa Cav. et P. amoena Escobar), Maracujá-poranga, Maracujá-do-rato (Portugais), Sineki maakusa (Aluku). On la connaît également sous les noms de Passiflore écarlate ou Grenadille rouge en raison de ses fleurs rouges vives. Au Guyana, on l'appelle Semitoo (Créole), Marudi yure (Arawak), Sokosoko (Carib).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Passiflora coccinea est une liane fine et rampante commune partout en Guyane, aussi bien dans les anciens abattis, qu'en bords de piste et en végétation ripicole[5].
-Les feuilles sont ovales à oblongues et doublement dentées[7]. Elles mesurent environ 5 à 10 cm pour une largeur variant entre 1 et 10 cm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passiflora coccinea est une liane fine et rampante commune partout en Guyane, aussi bien dans les anciens abattis, qu'en bords de piste et en végétation ripicole.
+Les feuilles sont ovales à oblongues et doublement dentées. Elles mesurent environ 5 à 10 cm pour une largeur variant entre 1 et 10 cm.
 Sa fleur, solitaire est composée de tépales rouges avec une couronne de couleur rouge et blanc, petite par rapport aux autres variétés de passiflores. Sa période de floraison est de juin à septembre.
-C’est une plante nécessitant une exposition plein soleil. Elle attire les insectes pollinisateurs tels que les papillons, les abeilles ou encore des animaux comme les oiseaux. Le fruit est comestible et consommé dans son pays d’origine. C’est un fruit ovoïde ou sphérique, pubescent de couleur jaune à orangé. Sa taille varie entre 2 et 5 cm de long[2].
+C’est une plante nécessitant une exposition plein soleil. Elle attire les insectes pollinisateurs tels que les papillons, les abeilles ou encore des animaux comme les oiseaux. Le fruit est comestible et consommé dans son pays d’origine. C’est un fruit ovoïde ou sphérique, pubescent de couleur jaune à orangé. Sa taille varie entre 2 et 5 cm de long.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les zones tempérées Passiflora coccinea est généralement cultivée à l'intérieur, mais elle peut être aussi cultivée en extérieur dans les zones où la température ne descend pas en dessous de −2 °C car la plante meurt à cette température.
 </t>
@@ -577,11 +593,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fruits comestibles sont quelquefois consommés.
-Passiflora coccinea est employée pour soigner la conjonctivite chez les Wayãpi. Elle est considérée comme une plante magique employée dans une préparation destinée à protéger contre les mauvais esprits chez les Palikur[5].
-Les Caboclos du Rio Madeira emploient Passiflora coccinea pour soigner les troubles cardiaques[9].
+Passiflora coccinea est employée pour soigner la conjonctivite chez les Wayãpi. Elle est considérée comme une plante magique employée dans une préparation destinée à protéger contre les mauvais esprits chez les Palikur.
+Les Caboclos du Rio Madeira emploient Passiflora coccinea pour soigner les troubles cardiaques.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[10] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « PASSIFLORA (coccinea) foliis cordatis, ſerratis, petiolatis, glanduloſis ; floribus coccineis ; fructu flavo. (Tabula 324.) 
 Frutex ſarmentoſus, ſcandens, volubilis, ſuprà frutices expanſus. Sarmenta ſtriata, angulata. Folia alterna, cordata, glabra, dentata, denticulis rubris, petiolata; petiolis glanduloſis ; glandulis ad baſim binis, in medio etiam binis, totidem quandoque ad apicem. Stipule oblongæ, anguſtæ, dentatæ. Flores ſolitarii, axillares, longo pedunculo innixi ; involucrum. floris triphyllum ; foliolis amplis, ſubrotundis, concavis, ſulphurei colons. Perianthium monophyllum, quinqueparcitum ; laciniis lanceolatis, carnoſis, concavis, acutis,extus flaveſcentibus, intus coccineis. Petala quinque, ovato-oblonga, intrà diviſuras calicis, coccinea. Corona nectarii flaveſcens. FRUCTUS jbacca flava, trilocularis. Semina plurima, compreſſa, in pulpâ gelatinoſa eduli nidulantia. 
 Florebat, fructumque ferebat Auguſto. 
